--- a/tests/xl/from-json-T.xlsx
+++ b/tests/xl/from-json-T.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=TestGrid - HeaderDepth=1 - IsTransposed=False - DateTime=2024-09-30 08:42:22.082537 - SchemaUrl=None</t>
+    <t>#Title=TestGrid - HeaderDepth=1 - IsTransposed=False - DateTime=2024-10-04 13:00:12.441599 - SchemaUrl=None</t>
   </si>
 </sst>
 </file>

--- a/tests/xl/from-json-T.xlsx
+++ b/tests/xl/from-json-T.xlsx
@@ -28,7 +28,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>#Title=TestGrid - HeaderDepth=1 - IsTransposed=False - DateTime=2024-10-04 13:00:12.441599 - SchemaUrl=None</t>
+    <t>#Title=TestGrid - HeaderDepth=1 - IsTransposed=False - DateTime=2025-09-18 09:28:30.503135 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
